--- a/data/股票代码.xlsx
+++ b/data/股票代码.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">002475</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">0.05</t>
@@ -71,6 +71,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">京东方</t>
     </r>
@@ -113,6 +114,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">实际</t>
     </r>
@@ -132,6 +134,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">手</t>
     </r>
@@ -158,48 +161,48 @@
     <t xml:space="preserve">江苏银行</t>
   </si>
   <si>
-    <t xml:space="preserve">11.38</t>
+    <t xml:space="preserve">12.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顺丰控股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中信证券</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国平安</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建设银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">顺丰控股</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信证券</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国平安</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建设银行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">江苏金租</t>
   </si>
   <si>
@@ -215,10 +218,10 @@
     <t xml:space="preserve">01810</t>
   </si>
   <si>
-    <t xml:space="preserve">59.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">61.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
   </si>
   <si>
     <t xml:space="preserve">小鹏汽车</t>
@@ -230,9 +233,6 @@
     <t xml:space="preserve">106</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">腾讯控股</t>
   </si>
   <si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t xml:space="preserve">520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜜雪集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛啤酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
   </si>
 </sst>
 </file>
@@ -251,7 +269,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -280,6 +298,13 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -359,7 +384,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,18 +405,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="38.46"/>
@@ -428,77 +453,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="5" t="n">
         <v>55.86</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="5" t="n">
         <v>55.86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="5" t="n">
         <v>5.63</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="5" t="n">
         <v>6.355</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="5" t="n">
         <v>80.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="5" t="n">
         <v>80.5</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
@@ -529,25 +554,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="n">
         <v>600276</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="n">
+      <c r="D6" s="5"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
@@ -576,31 +597,31 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="5" t="n">
         <v>145</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="5" t="n">
         <v>95.48</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -623,7 +644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -639,8 +660,8 @@
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="n">
-        <v>1</v>
+      <c r="G10" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -662,8 +683,8 @@
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="7" t="n">
-        <v>5</v>
+      <c r="G11" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
@@ -685,14 +706,14 @@
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>3</v>
+      <c r="G12" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -738,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -755,6 +776,9 @@
         <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -778,7 +802,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
@@ -786,28 +810,80 @@
     </row>
     <row r="17" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>2097</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>600600</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" display="蜜雪集团"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -829,7 +905,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="16.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/股票代码.xlsx
+++ b/data/股票代码.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t xml:space="preserve">公司名称</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">002475</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">0.05</t>
@@ -164,82 +164,88 @@
     <t xml:space="preserve">12.55</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顺丰控股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中信证券</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国平安</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建设银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.03</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">顺丰控股</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中信证券</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国平安</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建设银行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67</t>
+    <t xml:space="preserve">江苏金租</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小米集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">港</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小鹏汽车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腾讯控股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏金租</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小米集团</t>
-  </si>
-  <si>
-    <t xml:space="preserve">港</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小鹏汽车</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腾讯控股</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520</t>
   </si>
   <si>
     <t xml:space="preserve">蜜雪集团</t>
@@ -269,7 +275,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -305,12 +311,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,10 +384,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +404,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -776,7 +772,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>49</v>
@@ -802,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
@@ -810,30 +806,30 @@
     </row>
     <row r="17" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>46</v>
@@ -842,48 +838,45 @@
         <v>2097</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>59</v>
+      <c r="A19" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>600600</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="蜜雪集团"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
